--- a/Hotel_LT_Cancun_Honolulu.xlsx
+++ b/Hotel_LT_Cancun_Honolulu.xlsx
@@ -1,40 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2A497-3D7D-456D-A46F-11EA1BBC78AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Lamezia Terme" sheetId="1" r:id="rId1"/>
     <sheet name="Cancun" sheetId="2" r:id="rId2"/>
     <sheet name="Honolulu" sheetId="3" r:id="rId3"/>
-    <sheet name="Observations" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>Lamezia Terme</t>
   </si>
@@ -280,31 +262,13 @@
   </si>
   <si>
     <t>Waikiki Beachcomber By Outrigger</t>
-  </si>
-  <si>
-    <t>Both sites display 25 results on the first page</t>
-  </si>
-  <si>
-    <t>Difference in Price in USD</t>
-  </si>
-  <si>
-    <t>The results are almost exactly the same, even if not always in the same order</t>
-  </si>
-  <si>
-    <t>(Updated on Sunday April 25)</t>
-  </si>
-  <si>
-    <t>Lamezia Terme:</t>
-  </si>
-  <si>
-    <t>Booking.com has the Savant Hotel at 35 dollars less</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,30 +284,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -366,37 +316,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,14 +331,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -458,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,27 +409,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,24 +443,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,26 +618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,14 +638,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -786,7 +653,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -800,7 +667,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -814,7 +681,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -828,7 +695,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -842,7 +709,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -856,7 +723,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -870,7 +737,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -884,7 +751,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -898,7 +765,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -912,7 +779,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -926,7 +793,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -940,7 +807,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -954,7 +821,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -968,7 +835,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -982,7 +849,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -996,7 +863,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +877,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +891,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1038,25 +905,21 @@
         <v>482</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>926</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>891</v>
       </c>
-      <c r="E21" s="2">
-        <f>926-891</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +933,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +947,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +961,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +975,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1132,24 +995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="60.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1163,9 +1016,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1177,7 +1030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1044,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1058,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1072,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1086,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1100,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1114,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1128,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1142,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1156,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1170,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1184,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1198,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1212,7 @@
         <v>6334</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1226,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1240,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1254,7 @@
         <v>3571</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1268,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1282,7 @@
         <v>5047</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1296,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1310,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1324,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1338,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1352,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1519,25 +1372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="6" tint="-0.499984740745262"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="37.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1551,9 +1393,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -1565,7 +1407,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1421,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1435,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1449,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1463,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1477,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1491,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1505,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1519,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +1533,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1547,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1719,7 +1561,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1575,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1589,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1603,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1775,7 +1617,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1631,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1645,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1659,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1673,7 @@
         <v>6792</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1687,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +1701,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1715,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1729,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1899,49 +1741,6 @@
       </c>
       <c r="D26">
         <v>1988</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF0D589-4418-4AB6-965B-88F56F41D6A5}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A2:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="52.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
